--- a/Avatar_Micro_Robot/Robot_V2/Power_Board/trunk/doc/2011Robot_PowerBoard_AssistantCalculationSheet.xlsx
+++ b/Avatar_Micro_Robot/Robot_V2/Power_Board/trunk/doc/2011Robot_PowerBoard_AssistantCalculationSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="PWM Frequency" sheetId="1" r:id="rId1"/>
@@ -386,40 +386,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="3" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="D2" t="s">
+    <row r="2" spans="1:8">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>32000000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="G2">
-        <f>E2/2</f>
+      <c r="H2">
+        <f>F2/2</f>
         <v>16000000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -427,33 +427,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
-        <f>1/A4/2*$E$2-1</f>
+        <f>1/A4/2*$F$2-1</f>
         <v>533332.33333333337</v>
       </c>
       <c r="C4">
-        <f>1/A4/2*$E$2/8-1</f>
+        <f>1/A4/2*$F$2/8-1</f>
         <v>66665.666666666672</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>50</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B63" si="0">1/A5/2*$E$2-1</f>
+        <f t="shared" ref="B5:B63" si="0">1/A5/2*$F$2-1</f>
         <v>319999</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C63" si="1">1/A5/2*$E$2/8-1</f>
+        <f t="shared" ref="C5:C63" si="1">1/A5/2*$F$2/8-1</f>
         <v>39999</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>100</v>
       </c>
@@ -465,24 +465,24 @@
         <f t="shared" si="1"/>
         <v>19999</v>
       </c>
-      <c r="D6">
-        <f t="shared" ref="D6:D7" si="2">ROUNDDOWN(C6,0)</f>
+      <c r="E6">
+        <f t="shared" ref="E6:E7" si="2">ROUNDDOWN(C6,0)</f>
         <v>19999</v>
       </c>
-      <c r="E6">
-        <f>LOG10($G$2/A6/8)/LOG10(2)</f>
+      <c r="F6">
+        <f>LOG10($H$2/A6/8)/LOG10(2)</f>
         <v>14.287712379549449</v>
       </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F7" si="3">POWER(2,E6)</f>
+      <c r="G6">
+        <f t="shared" ref="G6:G7" si="3">POWER(2,F6)</f>
         <v>19999.999999999982</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G7" si="4">ROUNDDOWN(F6,0)</f>
+      <c r="H6">
+        <f t="shared" ref="H6:H7" si="4">ROUNDDOWN(G6,0)</f>
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>200</v>
       </c>
@@ -494,24 +494,24 @@
         <f t="shared" si="1"/>
         <v>9999</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="2"/>
         <v>9999</v>
       </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E63" si="5">LOG10($G$2/A7/8)/LOG10(2)</f>
+      <c r="F7">
+        <f t="shared" ref="F7:F63" si="5">LOG10($H$2/A7/8)/LOG10(2)</f>
         <v>13.287712379549449</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="3"/>
         <v>9999.9999999999909</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="4"/>
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>300</v>
       </c>
@@ -523,24 +523,24 @@
         <f t="shared" si="1"/>
         <v>6665.666666666667</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f>ROUNDDOWN(C8,0)</f>
         <v>6665</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="5"/>
         <v>12.702749878828293</v>
       </c>
-      <c r="F8">
-        <f>POWER(2,E8)</f>
+      <c r="G8">
+        <f>POWER(2,F8)</f>
         <v>6666.6666666666652</v>
       </c>
-      <c r="G8">
-        <f>ROUNDDOWN(F8,0)</f>
+      <c r="H8">
+        <f>ROUNDDOWN(G8,0)</f>
         <v>6666</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>400</v>
       </c>
@@ -552,24 +552,24 @@
         <f t="shared" si="1"/>
         <v>4999</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f>ROUNDDOWN(C9,0)</f>
         <v>4999</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="5"/>
         <v>12.287712379549449</v>
       </c>
-      <c r="F9">
-        <f>POWER(2,E9)</f>
+      <c r="G9">
+        <f>POWER(2,F9)</f>
         <v>4999.9999999999955</v>
       </c>
-      <c r="G9">
-        <f>ROUNDDOWN(F9,0)</f>
+      <c r="H9">
+        <f>ROUNDDOWN(G9,0)</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>500</v>
       </c>
@@ -581,24 +581,24 @@
         <f t="shared" si="1"/>
         <v>3999</v>
       </c>
-      <c r="D10">
-        <f t="shared" ref="D10:D63" si="6">ROUNDDOWN(C10,0)</f>
+      <c r="E10">
+        <f t="shared" ref="E10:E63" si="6">ROUNDDOWN(C10,0)</f>
         <v>3999</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="5"/>
         <v>11.965784284662087</v>
       </c>
-      <c r="F10">
-        <f t="shared" ref="F10:F63" si="7">POWER(2,E10)</f>
+      <c r="G10">
+        <f t="shared" ref="G10:G63" si="7">POWER(2,F10)</f>
         <v>3999.9999999999995</v>
       </c>
-      <c r="G10">
-        <f t="shared" ref="G10:G63" si="8">ROUNDDOWN(F10,0)</f>
+      <c r="H10">
+        <f t="shared" ref="H10:H63" si="8">ROUNDDOWN(G10,0)</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>600</v>
       </c>
@@ -610,24 +610,24 @@
         <f t="shared" si="1"/>
         <v>3332.3333333333335</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="6"/>
         <v>3332</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="5"/>
         <v>11.702749878828293</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="7"/>
         <v>3333.3333333333321</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="8"/>
         <v>3333</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>700</v>
       </c>
@@ -639,24 +639,24 @@
         <f t="shared" si="1"/>
         <v>2856.1428571428573</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="6"/>
         <v>2856</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="5"/>
         <v>11.480357457491845</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="7"/>
         <v>2857.1428571428569</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="8"/>
         <v>2857</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>800</v>
       </c>
@@ -668,24 +668,24 @@
         <f t="shared" si="1"/>
         <v>2499</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <f t="shared" si="6"/>
         <v>2499</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="5"/>
         <v>11.287712379549449</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="7"/>
         <v>2499.9999999999973</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="8"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>900</v>
       </c>
@@ -697,24 +697,24 @@
         <f t="shared" si="1"/>
         <v>2221.2222222222222</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="6"/>
         <v>2221</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="5"/>
         <v>11.117787378107138</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="7"/>
         <v>2222.2222222222231</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="8"/>
         <v>2222</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1000</v>
       </c>
@@ -726,24 +726,24 @@
         <f t="shared" si="1"/>
         <v>1999</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="6"/>
         <v>1999</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="5"/>
         <v>10.965784284662087</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="7"/>
         <v>1999.9999999999998</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="8"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1100</v>
       </c>
@@ -755,24 +755,24 @@
         <f t="shared" si="1"/>
         <v>1817.1818181818182</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="6"/>
         <v>1817</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="5"/>
         <v>10.828280760912152</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="7"/>
         <v>1818.181818181818</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="8"/>
         <v>1818</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1200</v>
       </c>
@@ -784,24 +784,24 @@
         <f t="shared" si="1"/>
         <v>1665.6666666666667</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="6"/>
         <v>1665</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="5"/>
         <v>10.702749878828294</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="7"/>
         <v>1666.6666666666674</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="8"/>
         <v>1666</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>1300</v>
       </c>
@@ -813,24 +813,24 @@
         <f t="shared" si="1"/>
         <v>1537.4615384615386</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="6"/>
         <v>1537</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="5"/>
         <v>10.587272661408356</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="7"/>
         <v>1538.4615384615365</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="8"/>
         <v>1538</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1400</v>
       </c>
@@ -842,24 +842,24 @@
         <f t="shared" si="1"/>
         <v>1427.5714285714287</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="6"/>
         <v>1427</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="5"/>
         <v>10.480357457491845</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="7"/>
         <v>1428.5714285714284</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="8"/>
         <v>1428</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>1500</v>
       </c>
@@ -871,24 +871,24 @@
         <f t="shared" si="1"/>
         <v>1332.3333333333333</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="6"/>
         <v>1332</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="5"/>
         <v>10.380821783940931</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="7"/>
         <v>1333.3333333333328</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="8"/>
         <v>1333</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1600</v>
       </c>
@@ -900,24 +900,24 @@
         <f t="shared" si="1"/>
         <v>1249</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="6"/>
         <v>1249</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="5"/>
         <v>10.287712379549449</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="7"/>
         <v>1249.9999999999995</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="8"/>
         <v>1250</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1700</v>
       </c>
@@ -929,24 +929,24 @@
         <f t="shared" si="1"/>
         <v>1175.4705882352939</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <f t="shared" si="6"/>
         <v>1175</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="5"/>
         <v>10.20024953829911</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f t="shared" si="7"/>
         <v>1176.470588235293</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="8"/>
         <v>1176</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>1800</v>
       </c>
@@ -958,24 +958,24 @@
         <f t="shared" si="1"/>
         <v>1110.1111111111111</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="6"/>
         <v>1110</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="5"/>
         <v>10.117787378107137</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="7"/>
         <v>1111.1111111111104</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="8"/>
         <v>1111</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>1900</v>
       </c>
@@ -987,24 +987,24 @@
         <f t="shared" si="1"/>
         <v>1051.6315789473683</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f t="shared" si="6"/>
         <v>1051</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="5"/>
         <v>10.039784866105864</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f t="shared" si="7"/>
         <v>1052.6315789473679</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="8"/>
         <v>1052</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -1016,24 +1016,24 @@
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <f t="shared" si="6"/>
         <v>999</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="5"/>
         <v>9.965784284662087</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="7"/>
         <v>999.99999999999977</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="8"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <f t="shared" si="8"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2100</v>
       </c>
@@ -1045,24 +1045,24 @@
         <f t="shared" si="1"/>
         <v>951.38095238095241</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <f t="shared" si="6"/>
         <v>951</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="5"/>
         <v>9.8953949567706889</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <f t="shared" si="7"/>
         <v>952.38095238095195</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="8"/>
         <v>952</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2200</v>
       </c>
@@ -1074,24 +1074,24 @@
         <f t="shared" si="1"/>
         <v>908.09090909090912</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f t="shared" si="6"/>
         <v>908</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="5"/>
         <v>9.8282807609121523</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="7"/>
         <v>909.09090909090901</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="8"/>
         <v>909</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2300</v>
       </c>
@@ -1103,24 +1103,24 @@
         <f t="shared" si="1"/>
         <v>868.56521739130437</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <f t="shared" si="6"/>
         <v>868</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="5"/>
         <v>9.7641504234924366</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="7"/>
         <v>869.56521739130437</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="8"/>
         <v>869</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2400</v>
       </c>
@@ -1132,24 +1132,24 @@
         <f t="shared" si="1"/>
         <v>832.33333333333337</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <f t="shared" si="6"/>
         <v>832</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="5"/>
         <v>9.7027498788282944</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f t="shared" si="7"/>
         <v>833.3333333333336</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="8"/>
         <v>833</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2500</v>
       </c>
@@ -1161,24 +1161,24 @@
         <f t="shared" si="1"/>
         <v>799</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <f t="shared" si="6"/>
         <v>799</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f t="shared" si="5"/>
         <v>9.6438561897747253</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f t="shared" si="7"/>
         <v>799.99999999999989</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f t="shared" si="8"/>
         <v>800</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2600</v>
       </c>
@@ -1190,24 +1190,24 @@
         <f t="shared" si="1"/>
         <v>768.23076923076928</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <f t="shared" si="6"/>
         <v>768</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="5"/>
         <v>9.5872726614083561</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <f t="shared" si="7"/>
         <v>769.23076923076815</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="8"/>
         <v>769</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>2700</v>
       </c>
@@ -1219,24 +1219,24 @@
         <f t="shared" si="1"/>
         <v>739.74074074074065</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <f t="shared" si="6"/>
         <v>739</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f t="shared" si="5"/>
         <v>9.5328248773859805</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <f t="shared" si="7"/>
         <v>740.74074074074008</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f t="shared" si="8"/>
         <v>740</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>2800</v>
       </c>
@@ -1248,24 +1248,24 @@
         <f t="shared" si="1"/>
         <v>713.28571428571433</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <f t="shared" si="6"/>
         <v>713</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <f t="shared" si="5"/>
         <v>9.480357457491845</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <f t="shared" si="7"/>
         <v>714.28571428571411</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f t="shared" si="8"/>
         <v>714</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>2900</v>
       </c>
@@ -1277,24 +1277,24 @@
         <f t="shared" si="1"/>
         <v>688.65517241379303</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <f t="shared" si="6"/>
         <v>688</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f t="shared" si="5"/>
         <v>9.4297313844218777</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <f t="shared" si="7"/>
         <v>689.65517241379337</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f t="shared" si="8"/>
         <v>689</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>3000</v>
       </c>
@@ -1306,24 +1306,24 @@
         <f t="shared" si="1"/>
         <v>665.66666666666663</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <f t="shared" si="6"/>
         <v>665</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <f t="shared" si="5"/>
         <v>9.3808217839409309</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <f t="shared" si="7"/>
         <v>666.6666666666664</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f t="shared" si="8"/>
         <v>666</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>4000</v>
       </c>
@@ -1335,24 +1335,24 @@
         <f t="shared" si="1"/>
         <v>499</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <f t="shared" si="6"/>
         <v>499</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" si="5"/>
         <v>8.965784284662087</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <f t="shared" si="7"/>
         <v>499.99999999999983</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f t="shared" si="8"/>
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>5000</v>
       </c>
@@ -1364,24 +1364,24 @@
         <f t="shared" si="1"/>
         <v>399</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <f t="shared" si="6"/>
         <v>399</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f t="shared" si="5"/>
         <v>8.6438561897747253</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <f t="shared" si="7"/>
         <v>400.00000000000023</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>6000</v>
       </c>
@@ -1393,24 +1393,24 @@
         <f t="shared" si="1"/>
         <v>332.33333333333331</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <f t="shared" si="6"/>
         <v>332</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <f t="shared" si="5"/>
         <v>8.3808217839409309</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <f t="shared" si="7"/>
         <v>333.33333333333314</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f t="shared" si="8"/>
         <v>333</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>7000</v>
       </c>
@@ -1422,24 +1422,24 @@
         <f t="shared" si="1"/>
         <v>284.71428571428572</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <f t="shared" si="6"/>
         <v>284</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <f t="shared" si="5"/>
         <v>8.1584293626044833</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <f t="shared" si="7"/>
         <v>285.71428571428561</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f t="shared" si="8"/>
         <v>285</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>8000</v>
       </c>
@@ -1451,24 +1451,24 @@
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <f t="shared" si="6"/>
         <v>249</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <f t="shared" si="5"/>
         <v>7.965784284662087</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <f t="shared" si="7"/>
         <v>249.99999999999989</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <f t="shared" si="8"/>
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>9000</v>
       </c>
@@ -1480,24 +1480,24 @@
         <f t="shared" si="1"/>
         <v>221.22222222222223</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <f t="shared" si="6"/>
         <v>221</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <f t="shared" si="5"/>
         <v>7.7958592832197748</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <f t="shared" si="7"/>
         <v>222.22222222222226</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <f t="shared" si="8"/>
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>10000</v>
       </c>
@@ -1509,24 +1509,24 @@
         <f t="shared" si="1"/>
         <v>199</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <f t="shared" si="6"/>
         <v>199</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <f t="shared" si="5"/>
         <v>7.6438561897747253</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <f t="shared" si="7"/>
         <v>200.00000000000011</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>11000</v>
       </c>
@@ -1538,24 +1538,24 @@
         <f t="shared" si="1"/>
         <v>180.81818181818181</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <f t="shared" si="5"/>
         <v>7.5063526660247906</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <f t="shared" si="7"/>
         <v>181.81818181818193</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <f t="shared" si="8"/>
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>12000</v>
       </c>
@@ -1567,24 +1567,24 @@
         <f t="shared" si="1"/>
         <v>165.66666666666666</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <f t="shared" si="6"/>
         <v>165</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <f t="shared" si="5"/>
         <v>7.38082178394093</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <f t="shared" si="7"/>
         <v>166.66666666666657</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <f t="shared" si="8"/>
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>13000</v>
       </c>
@@ -1596,24 +1596,24 @@
         <f t="shared" si="1"/>
         <v>152.84615384615384</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <f t="shared" si="6"/>
         <v>152</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f t="shared" si="5"/>
         <v>7.2653445665209944</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <f t="shared" si="7"/>
         <v>153.84615384615375</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <f t="shared" si="8"/>
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>14000</v>
       </c>
@@ -1625,24 +1625,24 @@
         <f t="shared" si="1"/>
         <v>141.85714285714286</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <f t="shared" si="6"/>
         <v>141</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <f t="shared" si="5"/>
         <v>7.1584293626044824</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <f t="shared" si="7"/>
         <v>142.8571428571428</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <f t="shared" si="8"/>
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>15000</v>
       </c>
@@ -1654,24 +1654,24 @@
         <f t="shared" si="1"/>
         <v>132.33333333333334</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <f t="shared" si="6"/>
         <v>132</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <f t="shared" si="5"/>
         <v>7.0588936890535683</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <f t="shared" si="7"/>
         <v>133.33333333333326</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <f t="shared" si="8"/>
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>16000</v>
       </c>
@@ -1683,24 +1683,24 @@
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <f t="shared" si="6"/>
         <v>124</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <f t="shared" si="5"/>
         <v>6.9657842846620861</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <f t="shared" si="7"/>
         <v>124.99999999999994</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>17000</v>
       </c>
@@ -1712,24 +1712,24 @@
         <f t="shared" si="1"/>
         <v>116.64705882352942</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <f t="shared" si="5"/>
         <v>6.878321443411747</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <f t="shared" si="7"/>
         <v>117.64705882352938</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <f t="shared" si="8"/>
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>18000</v>
       </c>
@@ -1741,24 +1741,24 @@
         <f t="shared" si="1"/>
         <v>110.11111111111111</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <f t="shared" si="5"/>
         <v>6.7958592832197748</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <f t="shared" si="7"/>
         <v>111.11111111111111</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <f t="shared" si="8"/>
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>19000</v>
       </c>
@@ -1770,24 +1770,24 @@
         <f t="shared" si="1"/>
         <v>104.26315789473685</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <f t="shared" si="5"/>
         <v>6.7178567712185018</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <f t="shared" si="7"/>
         <v>105.26315789473685</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>20000</v>
       </c>
@@ -1799,24 +1799,24 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <f t="shared" si="5"/>
         <v>6.6438561897747244</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <f t="shared" si="7"/>
         <v>99.999999999999957</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>30000</v>
       </c>
@@ -1828,24 +1828,24 @@
         <f t="shared" si="1"/>
         <v>65.666666666666671</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <f t="shared" si="5"/>
         <v>6.0588936890535692</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <f t="shared" si="7"/>
         <v>66.666666666666686</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <f t="shared" si="8"/>
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>40000</v>
       </c>
@@ -1857,24 +1857,24 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <f t="shared" si="5"/>
         <v>5.6438561897747244</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <f t="shared" si="7"/>
         <v>49.999999999999972</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>50000</v>
       </c>
@@ -1886,24 +1886,24 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <f t="shared" si="5"/>
         <v>5.3219280948873617</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <f t="shared" si="7"/>
         <v>39.999999999999979</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>60000</v>
       </c>
@@ -1915,24 +1915,24 @@
         <f t="shared" si="1"/>
         <v>32.333333333333336</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <f t="shared" si="5"/>
         <v>5.0588936890535683</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <f t="shared" si="7"/>
         <v>33.333333333333321</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>70000</v>
       </c>
@@ -1944,24 +1944,24 @@
         <f t="shared" si="1"/>
         <v>27.571428571428569</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <f t="shared" si="5"/>
         <v>4.8365012677171206</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <f t="shared" si="7"/>
         <v>28.571428571428569</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>80000</v>
       </c>
@@ -1973,24 +1973,24 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <f t="shared" si="5"/>
         <v>4.6438561897747253</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <f t="shared" si="7"/>
         <v>25.000000000000007</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>90000</v>
       </c>
@@ -2002,24 +2002,24 @@
         <f t="shared" si="1"/>
         <v>21.222222222222225</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <f t="shared" si="5"/>
         <v>4.4739311883324122</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <f t="shared" si="7"/>
         <v>22.222222222222221</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>100000</v>
       </c>
@@ -2031,24 +2031,24 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <f t="shared" si="5"/>
         <v>4.3219280948873626</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <f t="shared" si="7"/>
         <v>20.000000000000007</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>200000</v>
       </c>
@@ -2060,24 +2060,24 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <f t="shared" si="5"/>
         <v>3.3219280948873622</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <f t="shared" si="7"/>
         <v>9.9999999999999982</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>500000</v>
       </c>
@@ -2089,24 +2089,24 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>1000000</v>
       </c>
@@ -2118,19 +2118,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -2144,7 +2144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -2200,7 +2200,7 @@
         <v>290</v>
       </c>
       <c r="E2">
-        <f>G2-C2</f>
+        <f t="shared" ref="E2:E30" si="0">G2-C2</f>
         <v>1000</v>
       </c>
       <c r="F2">
@@ -2225,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B30" si="0">A3*5</f>
+        <f t="shared" ref="B3:B30" si="1">A3*5</f>
         <v>10</v>
       </c>
       <c r="C3">
@@ -2233,11 +2233,11 @@
         <v>377</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D15" si="1">$I$2*E3+$J$2*F3</f>
+        <f t="shared" ref="D3:D15" si="2">$I$2*E3+$J$2*F3</f>
         <v>380.67</v>
       </c>
       <c r="E3">
-        <f>G3-C3</f>
+        <f t="shared" si="0"/>
         <v>623</v>
       </c>
       <c r="F3">
@@ -2253,23 +2253,23 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C30" si="2">D3*1.3</f>
+        <f t="shared" ref="C4:C30" si="3">D3*1.3</f>
         <v>494.87100000000004</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>471.08741000000003</v>
       </c>
       <c r="E4">
-        <f>G4-C4</f>
+        <f t="shared" si="0"/>
         <v>505.12899999999996</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F15" si="3">F3+E4</f>
+        <f t="shared" ref="F4:F15" si="4">F3+E4</f>
         <v>2128.1289999999999</v>
       </c>
       <c r="G4">
@@ -2281,23 +2281,23 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C5">
+        <f t="shared" si="3"/>
+        <v>612.41363300000012</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="2"/>
-        <v>612.41363300000012</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
         <v>538.02584643</v>
       </c>
       <c r="E5">
-        <f>G5-C5</f>
+        <f t="shared" si="0"/>
         <v>387.58636699999988</v>
       </c>
       <c r="F5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2515.7153669999998</v>
       </c>
       <c r="G5">
@@ -2309,23 +2309,23 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C6">
+        <f t="shared" si="3"/>
+        <v>699.43360035900002</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="2"/>
-        <v>699.43360035900002</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
         <v>590.30732929588987</v>
       </c>
       <c r="E6">
-        <f>G6-C6</f>
+        <f t="shared" si="0"/>
         <v>300.56639964099998</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2816.2817666409996</v>
       </c>
       <c r="G6">
@@ -2337,23 +2337,23 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C7">
+        <f t="shared" si="3"/>
+        <v>767.39952808465682</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="2"/>
-        <v>767.39952808465682</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
         <v>630.71049018364943</v>
       </c>
       <c r="E7">
-        <f>G7-C7</f>
+        <f t="shared" si="0"/>
         <v>232.60047191534318</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3048.8822385563426</v>
       </c>
       <c r="G7">
@@ -2365,23 +2365,23 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C8">
+        <f t="shared" si="3"/>
+        <v>819.92363723874428</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="2"/>
-        <v>819.92363723874428</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
         <v>661.99859291203279</v>
       </c>
       <c r="E8">
-        <f>G8-C8</f>
+        <f t="shared" si="0"/>
         <v>180.07636276125572</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3228.9586013175985</v>
       </c>
       <c r="G8">
@@ -2393,23 +2393,23 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C9">
+        <f t="shared" si="3"/>
+        <v>860.59817078564265</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="2"/>
-        <v>860.59817078564265</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
         <v>686.21825073568345</v>
       </c>
       <c r="E9">
-        <f>G9-C9</f>
+        <f t="shared" si="0"/>
         <v>139.40182921435735</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3368.3604305319559</v>
       </c>
       <c r="G9">
@@ -2421,23 +2421,23 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C10">
+        <f t="shared" si="3"/>
+        <v>892.08372595638855</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="2"/>
-        <v>892.08372595638855</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
         <v>704.96780557903855</v>
       </c>
       <c r="E10">
-        <f>G10-C10</f>
+        <f t="shared" si="0"/>
         <v>107.91627404361145</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3476.2767045755672</v>
       </c>
       <c r="G10">
@@ -2449,23 +2449,23 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C11">
+        <f t="shared" si="3"/>
+        <v>916.45814725275011</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="2"/>
-        <v>916.45814725275011</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
         <v>719.48247821181587</v>
       </c>
       <c r="E11">
-        <f>G11-C11</f>
+        <f t="shared" si="0"/>
         <v>83.541852747249891</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3559.818557322817</v>
       </c>
       <c r="G11">
@@ -2477,23 +2477,23 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C12">
+        <f t="shared" si="3"/>
+        <v>935.32722167536065</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="2"/>
-        <v>935.32722167536065</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
         <v>730.71881717870883</v>
       </c>
       <c r="E12">
-        <f>G12-C12</f>
+        <f t="shared" si="0"/>
         <v>64.672778324639353</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3624.4913356474563</v>
       </c>
       <c r="G12">
@@ -2505,23 +2505,23 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C13">
+        <f t="shared" si="3"/>
+        <v>949.93446233232146</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="2"/>
-        <v>949.93446233232146</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
         <v>739.41727305311804</v>
       </c>
       <c r="E13">
-        <f>G13-C13</f>
+        <f t="shared" si="0"/>
         <v>50.065537667678541</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3674.5568733151349</v>
       </c>
       <c r="G13">
@@ -2533,23 +2533,23 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="C14">
+        <f t="shared" si="3"/>
+        <v>961.24245496905348</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="2"/>
-        <v>961.24245496905348</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
         <v>746.15106272200148</v>
       </c>
       <c r="E14">
-        <f>G14-C14</f>
+        <f t="shared" si="0"/>
         <v>38.757545030946517</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3713.3144183460813</v>
       </c>
       <c r="G14">
@@ -2561,23 +2561,23 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="C15">
+        <f t="shared" si="3"/>
+        <v>969.99638153860201</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="2"/>
-        <v>969.99638153860201</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
         <v>751.36393302302167</v>
       </c>
       <c r="E15">
-        <f>G15-C15</f>
+        <f t="shared" si="0"/>
         <v>30.003618461397991</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3743.3180368074791</v>
       </c>
       <c r="G15">
@@ -2589,23 +2589,23 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="C16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>976.77311292992817</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D30" si="4">$I$2*E16+$J$2*F16</f>
+        <f t="shared" ref="D16:D30" si="5">$I$2*E16+$J$2*F16</f>
         <v>755.39940461181664</v>
       </c>
       <c r="E16">
-        <f>G16-C16</f>
+        <f t="shared" si="0"/>
         <v>23.226887070071825</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F30" si="5">F15+E16</f>
+        <f t="shared" ref="F16:F30" si="6">F15+E16</f>
         <v>3766.5449238775509</v>
       </c>
       <c r="G16">
@@ -2617,23 +2617,23 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="C17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>982.01922599536169</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>758.52340923685529</v>
       </c>
       <c r="E17">
-        <f>G17-C17</f>
+        <f t="shared" si="0"/>
         <v>17.980774004638306</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3784.525697882189</v>
       </c>
       <c r="G17">
@@ -2645,23 +2645,23 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="C18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>986.0804320079119</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>760.94181429414334</v>
       </c>
       <c r="E18">
-        <f>G18-C18</f>
+        <f t="shared" si="0"/>
         <v>13.919567992088105</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3798.4452658742771</v>
       </c>
       <c r="G18">
@@ -2673,23 +2673,23 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="C19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>989.22435858238634</v>
       </c>
       <c r="D19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>762.81398918596346</v>
       </c>
       <c r="E19">
-        <f>G19-C19</f>
+        <f t="shared" si="0"/>
         <v>10.775641417613656</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3809.2209072918909</v>
       </c>
       <c r="G19">
@@ -2701,23 +2701,23 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="C20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>991.65818594175255</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>764.26330753527009</v>
       </c>
       <c r="E20">
-        <f>G20-C20</f>
+        <f t="shared" si="0"/>
         <v>8.3418140582474507</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3817.5627213501384</v>
       </c>
       <c r="G20">
@@ -2729,23 +2729,23 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>993.54229979585114</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>765.3852773292308</v>
       </c>
       <c r="E21">
-        <f>G21-C21</f>
+        <f t="shared" si="0"/>
         <v>6.457700204148864</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3824.0204215542872</v>
       </c>
       <c r="G21">
@@ -2757,23 +2757,23 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>995.00086052800009</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>766.25383475773742</v>
       </c>
       <c r="E22">
-        <f>G22-C22</f>
+        <f t="shared" si="0"/>
         <v>4.9991394719999107</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3829.0195610262872</v>
       </c>
       <c r="G22">
@@ -2785,23 +2785,23 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>996.12998518505867</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>766.92621650159049</v>
       </c>
       <c r="E23">
-        <f>G23-C23</f>
+        <f t="shared" si="0"/>
         <v>3.870014814941328</v>
       </c>
       <c r="F23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3832.8895758412286</v>
       </c>
       <c r="G23">
@@ -2813,23 +2813,23 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>997.00408145206768</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>767.4467315471461</v>
       </c>
       <c r="E24">
-        <f>G24-C24</f>
+        <f t="shared" si="0"/>
         <v>2.9959185479323196</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3835.8854943891611</v>
       </c>
       <c r="G24">
@@ -2841,23 +2841,23 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="C25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>997.68075101129</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>767.84968108455814</v>
       </c>
       <c r="E25">
-        <f>G25-C25</f>
+        <f t="shared" si="0"/>
         <v>2.319248988710001</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3838.2047433778712</v>
       </c>
       <c r="G25">
@@ -2869,23 +2869,23 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="C26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>998.20458540992558</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>768.16161890669582</v>
       </c>
       <c r="E26">
-        <f>G26-C26</f>
+        <f t="shared" si="0"/>
         <v>1.7954145900744152</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3840.0001579679456</v>
       </c>
       <c r="G26">
@@ -2897,23 +2897,23 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>998.61010457870464</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>768.4031012657648</v>
       </c>
       <c r="E27">
-        <f>G27-C27</f>
+        <f t="shared" si="0"/>
         <v>1.389895421295364</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3841.3900533892411</v>
       </c>
       <c r="G27">
@@ -2925,23 +2925,23 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>998.92403164549432</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>768.59004150065493</v>
       </c>
       <c r="E28">
-        <f>G28-C28</f>
+        <f t="shared" si="0"/>
         <v>1.075968354505676</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3842.4660217437468</v>
       </c>
       <c r="G28">
@@ -2953,23 +2953,23 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>999.16705395085148</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>768.73475870300251</v>
       </c>
       <c r="E29">
-        <f>G29-C29</f>
+        <f t="shared" si="0"/>
         <v>0.83294604914851789</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3843.2989677928954</v>
       </c>
       <c r="G29">
@@ -2981,23 +2981,23 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>999.35518631390335</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>768.84678952754723</v>
       </c>
       <c r="E30">
-        <f>G30-C30</f>
+        <f t="shared" si="0"/>
         <v>0.64481368609665424</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3843.9437814789922</v>
       </c>
       <c r="G30">
